--- a/PLANNNCK/Data/SPRINT3/Proposal_CreateTestSuite.xlsx
+++ b/PLANNNCK/Data/SPRINT3/Proposal_CreateTestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="830" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="830" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="8" r:id="rId1"/>
@@ -10129,8 +10129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13588,8 +13588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13961,8 +13961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE67"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20798,8 +20798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20931,7 +20931,7 @@
         <v>681</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
@@ -20986,7 +20986,7 @@
         <v>681</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -21041,7 +21041,7 @@
         <v>681</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
@@ -21096,7 +21096,7 @@
         <v>681</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -21151,7 +21151,7 @@
         <v>681</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
@@ -21206,7 +21206,7 @@
         <v>681</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
@@ -21261,7 +21261,7 @@
         <v>681</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -21316,7 +21316,7 @@
         <v>681</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -21371,7 +21371,7 @@
         <v>681</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
@@ -21426,7 +21426,7 @@
         <v>681</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
